--- a/data/descriptives/kable_model_all_pooled_effects.xlsx
+++ b/data/descriptives/kable_model_all_pooled_effects.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anuschka/Documents/climatechange/climatechange/data/descriptives/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\climatechange\data\descriptives\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D956CD1F-A0F7-D44F-821C-254AB3CFE605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E406058-68B8-4C53-906C-FEFCB70E9043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
+  <si>
+    <t>mu_sigma</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
   <si>
     <t>Estimate</t>
   </si>
@@ -29,6 +35,12 @@
   </si>
   <si>
     <t>p</t>
+  </si>
+  <si>
+    <t>mu_sigma_1</t>
+  </si>
+  <si>
+    <t>Variable_1</t>
   </si>
   <si>
     <t>Estimate_1</t>
@@ -136,7 +148,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -152,9 +164,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -192,9 +204,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,26 +239,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -279,26 +274,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -472,38 +450,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
@@ -514,370 +492,430 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C2">
-        <v>1.2542920876017379E-2</v>
+        <v>1.7499251227361651E-2</v>
       </c>
       <c r="D2">
-        <v>1.40167302609476E-2</v>
+        <v>1.0493229433483169E-2</v>
       </c>
       <c r="E2">
-        <v>0.37506934664923108</v>
-      </c>
-      <c r="F2">
-        <v>8.9379427094314848E-3</v>
-      </c>
-      <c r="G2">
-        <v>2.309832375685001E-2</v>
+        <v>9.9849125276771131E-2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
       </c>
       <c r="H2">
-        <v>0.70040172787782506</v>
+        <v>1.444965542906518E-2</v>
       </c>
       <c r="I2">
-        <v>-2.9725244223789239E-2</v>
+        <v>1.6772916033643889E-2</v>
       </c>
       <c r="J2">
-        <v>2.304979933208285E-2</v>
-      </c>
-      <c r="K2">
-        <v>0.2030039949090954</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3">
-        <v>0.10082718742095539</v>
-      </c>
-      <c r="G3">
-        <v>1.9431847568953359E-2</v>
+        <v>0.39191115751269318</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2">
+        <v>-1.9234054361212539E-2</v>
+      </c>
+      <c r="N2">
+        <v>2.1120426601443119E-2</v>
+      </c>
+      <c r="O2">
+        <v>0.36558676168083343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="G3" t="s">
+        <v>18</v>
       </c>
       <c r="H3">
-        <v>3.697907491379389E-6</v>
+        <v>0.12836191964748639</v>
       </c>
       <c r="I3">
+        <v>1.6493839188510381E-2</v>
+      </c>
+      <c r="J3">
+        <v>4.5951479643174577E-11</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3">
         <v>0.104384714160937</v>
       </c>
-      <c r="J3">
+      <c r="N3">
         <v>2.5166832421534668E-2</v>
       </c>
-      <c r="K3">
+      <c r="O3">
         <v>1.2718291767955199E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4">
-        <v>1.538703655254372E-3</v>
-      </c>
-      <c r="G4">
-        <v>7.2478204875123925E-4</v>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="G4" t="s">
+        <v>19</v>
       </c>
       <c r="H4">
-        <v>3.8629277801696463E-2</v>
+        <v>1.524537033012813E-3</v>
       </c>
       <c r="I4">
+        <v>5.7145486149800346E-4</v>
+      </c>
+      <c r="J4">
+        <v>9.4784969189000874E-3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4">
         <v>-4.5794049258308098E-4</v>
       </c>
-      <c r="J4">
+      <c r="N4">
         <v>8.5548805490242587E-4</v>
       </c>
-      <c r="K4">
+      <c r="O4">
         <v>0.594770863717617</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>0.16051193193019689</v>
+      </c>
+      <c r="I5">
+        <v>2.391489038795367E-2</v>
+      </c>
+      <c r="J5">
+        <v>4.1700972289367356E-9</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5">
+        <v>0.11676786904637861</v>
+      </c>
+      <c r="N5">
+        <v>3.2952845545627253E-2</v>
+      </c>
+      <c r="O5">
+        <v>8.5511552562201481E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6">
+        <v>3.5246328898225883E-2</v>
+      </c>
+      <c r="I6">
+        <v>8.9262144340931833E-3</v>
+      </c>
+      <c r="J6">
+        <v>1.8496179900863281E-4</v>
+      </c>
+      <c r="L6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6">
+        <v>2.8704247128092709E-2</v>
+      </c>
+      <c r="N6">
+        <v>1.310802431376173E-2</v>
+      </c>
+      <c r="O6">
+        <v>3.3136524800124273E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7">
+        <v>8.4413771132384587E-4</v>
+      </c>
+      <c r="N7">
+        <v>4.266781646756976E-3</v>
+      </c>
+      <c r="O7">
+        <v>0.8439571433373616</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8">
+        <v>7.6654102165211525E-4</v>
+      </c>
+      <c r="N8">
+        <v>3.4156938524953801E-4</v>
+      </c>
+      <c r="O8">
+        <v>2.918942744817107E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9">
+        <v>8.0154600752224345E-3</v>
+      </c>
+      <c r="N9">
+        <v>2.9174297479151899E-3</v>
+      </c>
+      <c r="O9">
+        <v>8.2814646911879824E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10">
+        <v>1.8268482420867801E-2</v>
+      </c>
+      <c r="N10">
+        <v>8.7618698062997859E-3</v>
+      </c>
+      <c r="O10">
+        <v>4.2094038073052543E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="F5">
-        <v>0.16524924840751909</v>
-      </c>
-      <c r="G5">
-        <v>3.0814267710431591E-2</v>
-      </c>
-      <c r="H5">
-        <v>2.0028862327096251E-6</v>
-      </c>
-      <c r="I5">
-        <v>0.11676786904637861</v>
-      </c>
-      <c r="J5">
-        <v>3.2952845545627253E-2</v>
-      </c>
-      <c r="K5">
-        <v>8.5511552562201481E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="C11">
+        <v>-1.232658647105557E-2</v>
+      </c>
+      <c r="D11">
+        <v>4.5322742835222536E-3</v>
+      </c>
+      <c r="E11">
+        <v>8.2332013166387125E-3</v>
+      </c>
+      <c r="F11" t="s">
         <v>17</v>
       </c>
-      <c r="F6">
-        <v>2.9692225518257408E-2</v>
-      </c>
-      <c r="G6">
-        <v>1.1184733969719189E-2</v>
-      </c>
-      <c r="H6">
-        <v>1.056222697059492E-2</v>
-      </c>
-      <c r="I6">
-        <v>2.8704247128092709E-2</v>
-      </c>
-      <c r="J6">
-        <v>1.310802431376173E-2</v>
-      </c>
-      <c r="K6">
-        <v>3.3136524800124273E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>-1.1247999272705349E-2</v>
+      </c>
+      <c r="I11">
+        <v>1.6772916033643889E-2</v>
+      </c>
+      <c r="J11">
+        <v>0.39191115751269318</v>
+      </c>
+      <c r="K11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11">
+        <v>4.3353873451343859E-3</v>
+      </c>
+      <c r="N11">
+        <v>6.2837409857494832E-3</v>
+      </c>
+      <c r="O11">
+        <v>0.36558676168083343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="G12" t="s">
         <v>18</v>
       </c>
-      <c r="I7">
-        <v>8.4413771132384587E-4</v>
-      </c>
-      <c r="J7">
-        <v>4.266781646756976E-3</v>
-      </c>
-      <c r="K7">
-        <v>0.8439571433373616</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+      <c r="H12">
+        <v>-9.2013492490330709E-2</v>
+      </c>
+      <c r="I12">
+        <v>8.9953140504184913E-3</v>
+      </c>
+      <c r="J12">
+        <v>1.5455927997050771E-15</v>
+      </c>
+      <c r="L12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12">
+        <v>8.0154600752224345E-3</v>
+      </c>
+      <c r="N12">
+        <v>2.9174297479151899E-3</v>
+      </c>
+      <c r="O12">
+        <v>8.2814646911879824E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="G13" t="s">
         <v>19</v>
       </c>
-      <c r="I8">
-        <v>7.6654102165211525E-4</v>
-      </c>
-      <c r="J8">
-        <v>3.4156938524953801E-4</v>
-      </c>
-      <c r="K8">
-        <v>2.918942744817107E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+      <c r="H13">
+        <v>7.147328748700905E-5</v>
+      </c>
+      <c r="I13">
+        <v>2.4048412303007881E-4</v>
+      </c>
+      <c r="J13">
+        <v>0.76718954722084098</v>
+      </c>
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13">
+        <v>-4.9313762494610988E-4</v>
+      </c>
+      <c r="N13">
+        <v>4.9963574246236746E-3</v>
+      </c>
+      <c r="O13">
+        <v>0.92176384186441962</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="G14" t="s">
         <v>20</v>
       </c>
-      <c r="I9">
-        <v>8.0154600752224345E-3</v>
-      </c>
-      <c r="J9">
-        <v>2.9174297479151899E-3</v>
-      </c>
-      <c r="K9">
-        <v>8.2814646911879824E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+      <c r="H14">
+        <v>-4.1188325553671121E-2</v>
+      </c>
+      <c r="I14">
+        <v>7.7388504234892483E-3</v>
+      </c>
+      <c r="J14">
+        <v>1.172691313146752E-6</v>
+      </c>
+      <c r="L14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14">
+        <v>1.8268482420867801E-2</v>
+      </c>
+      <c r="N14">
+        <v>8.7618698062997859E-3</v>
+      </c>
+      <c r="O14">
+        <v>4.2094038073052543E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="G15" t="s">
         <v>21</v>
       </c>
-      <c r="I10">
-        <v>1.8268482420867801E-2</v>
-      </c>
-      <c r="J10">
-        <v>8.7618698062997859E-3</v>
-      </c>
-      <c r="K10">
-        <v>4.2094038073052543E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>-1.3116615400218671E-2</v>
-      </c>
-      <c r="D11">
-        <v>5.8423024748910472E-3</v>
-      </c>
-      <c r="E11">
-        <v>2.912519949090105E-2</v>
-      </c>
-      <c r="F11">
-        <v>-1.0524017144863829E-2</v>
-      </c>
-      <c r="G11">
-        <v>2.309832375685001E-2</v>
-      </c>
-      <c r="H11">
-        <v>0.70040172787782506</v>
-      </c>
-      <c r="I11">
-        <v>1.40516279096407E-3</v>
-      </c>
-      <c r="J11">
-        <v>4.8756689848529411E-3</v>
-      </c>
-      <c r="K11">
-        <v>0.2030039949090954</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12">
-        <v>-7.0747841750617796E-2</v>
-      </c>
-      <c r="G12">
-        <v>9.0983257503565573E-3</v>
-      </c>
-      <c r="H12">
-        <v>3.259820098383213E-10</v>
-      </c>
-      <c r="I12">
-        <v>8.0154600752224345E-3</v>
-      </c>
-      <c r="J12">
-        <v>2.9174297479151899E-3</v>
-      </c>
-      <c r="K12">
-        <v>8.2814646911879824E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13">
-        <v>6.1411546855977381E-4</v>
-      </c>
-      <c r="G13">
-        <v>2.700554349348742E-4</v>
-      </c>
-      <c r="H13">
-        <v>2.7203095176896789E-2</v>
-      </c>
-      <c r="I13">
-        <v>-4.9313762494610988E-4</v>
-      </c>
-      <c r="J13">
-        <v>4.9963574246236746E-3</v>
-      </c>
-      <c r="K13">
-        <v>0.92176384186441962</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14">
-        <v>-4.4441603727835732E-2</v>
-      </c>
-      <c r="G14">
-        <v>9.2104527727546945E-3</v>
-      </c>
-      <c r="H14">
-        <v>1.3093216800645321E-5</v>
-      </c>
-      <c r="I14">
-        <v>1.8268482420867801E-2</v>
-      </c>
-      <c r="J14">
-        <v>8.7618698062997859E-3</v>
-      </c>
-      <c r="K14">
-        <v>4.2094038073052543E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15">
-        <v>-6.2500357310878467E-3</v>
-      </c>
-      <c r="G15">
-        <v>4.3940798650867361E-3</v>
-      </c>
       <c r="H15">
-        <v>0.16100470571937561</v>
+        <v>-3.958225632214641E-3</v>
       </c>
       <c r="I15">
+        <v>3.9498089519604271E-3</v>
+      </c>
+      <c r="J15">
+        <v>0.31973203619018092</v>
+      </c>
+      <c r="L15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15">
         <v>1.1833621299294661</v>
       </c>
-      <c r="J15">
+      <c r="N15">
         <v>4.3197687000518202E-2</v>
       </c>
-      <c r="K15">
+      <c r="O15">
         <v>3.5819217441389151E-32</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L16" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16">
         <v>-9.3447855584580047E-4</v>
       </c>
-      <c r="J16">
+      <c r="N16">
         <v>1.3301489345044441E-3</v>
       </c>
-      <c r="K16">
+      <c r="O16">
         <v>0.48553886554327691</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17">
+    <row r="17" spans="12:15" x14ac:dyDescent="0.35">
+      <c r="L17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17">
         <v>-8.4087208093801532E-5</v>
       </c>
-      <c r="J17">
+      <c r="N17">
         <v>5.4160834916586663E-5</v>
       </c>
-      <c r="K17">
+      <c r="O17">
         <v>0.12671568233541111</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18">
+    <row r="18" spans="12:15" x14ac:dyDescent="0.35">
+      <c r="L18" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18">
         <v>1.001702598611903E-3</v>
       </c>
-      <c r="J18">
+      <c r="N18">
         <v>1.5990279728441039E-3</v>
       </c>
-      <c r="K18">
+      <c r="O18">
         <v>0.53381736911284339</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19">
+    <row r="19" spans="12:15" x14ac:dyDescent="0.35">
+      <c r="L19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19">
         <v>-1.4312272489515961E-3</v>
       </c>
-      <c r="J19">
+      <c r="N19">
         <v>3.099810046756309E-3</v>
       </c>
-      <c r="K19">
+      <c r="O19">
         <v>0.64624952095153065</v>
       </c>
     </row>

--- a/data/descriptives/kable_model_all_pooled_effects.xlsx
+++ b/data/descriptives/kable_model_all_pooled_effects.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\climatechange\data\descriptives\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E406058-68B8-4C53-906C-FEFCB70E9043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F611C9F0-3ECF-4ECF-A3D4-246ADB89447C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -453,7 +453,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -513,13 +513,13 @@
         <v>16</v>
       </c>
       <c r="C2">
-        <v>1.7499251227361651E-2</v>
+        <v>1.6508456713617729E-2</v>
       </c>
       <c r="D2">
-        <v>1.0493229433483169E-2</v>
+        <v>1.603342499776449E-2</v>
       </c>
       <c r="E2">
-        <v>9.9849125276771131E-2</v>
+        <v>0.30672945013142883</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -528,13 +528,13 @@
         <v>16</v>
       </c>
       <c r="H2">
-        <v>1.444965542906518E-2</v>
+        <v>1.385961092178634E-2</v>
       </c>
       <c r="I2">
-        <v>1.6772916033643889E-2</v>
+        <v>1.7004876683486721E-2</v>
       </c>
       <c r="J2">
-        <v>0.39191115751269318</v>
+        <v>0.41785525714275529</v>
       </c>
       <c r="K2" t="s">
         <v>15</v>
@@ -543,13 +543,13 @@
         <v>16</v>
       </c>
       <c r="M2">
-        <v>-1.9234054361212539E-2</v>
+        <v>-2.5244387553638409E-2</v>
       </c>
       <c r="N2">
-        <v>2.1120426601443119E-2</v>
+        <v>1.9411132843549658E-2</v>
       </c>
       <c r="O2">
-        <v>0.36558676168083343</v>
+        <v>0.1976913541016509</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
@@ -557,25 +557,25 @@
         <v>18</v>
       </c>
       <c r="H3">
-        <v>0.12836191964748639</v>
+        <v>0.1283552242379388</v>
       </c>
       <c r="I3">
-        <v>1.6493839188510381E-2</v>
+        <v>1.649337674113515E-2</v>
       </c>
       <c r="J3">
-        <v>4.5951479643174577E-11</v>
+        <v>4.5988049913880462E-11</v>
       </c>
       <c r="L3" t="s">
         <v>18</v>
       </c>
       <c r="M3">
-        <v>0.104384714160937</v>
+        <v>0.10437327381416379</v>
       </c>
       <c r="N3">
-        <v>2.5166832421534668E-2</v>
+        <v>2.51566283147323E-2</v>
       </c>
       <c r="O3">
-        <v>1.2718291767955199E-4</v>
+        <v>1.2667488427334339E-4</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
@@ -583,25 +583,25 @@
         <v>19</v>
       </c>
       <c r="H4">
-        <v>1.524537033012813E-3</v>
+        <v>1.524399515006372E-3</v>
       </c>
       <c r="I4">
-        <v>5.7145486149800346E-4</v>
+        <v>5.7147334770148021E-4</v>
       </c>
       <c r="J4">
-        <v>9.4784969189000874E-3</v>
+        <v>9.4868554308410423E-3</v>
       </c>
       <c r="L4" t="s">
         <v>19</v>
       </c>
       <c r="M4">
-        <v>-4.5794049258308098E-4</v>
+        <v>-4.5856077191687032E-4</v>
       </c>
       <c r="N4">
-        <v>8.5548805490242587E-4</v>
+        <v>8.5541304888766406E-4</v>
       </c>
       <c r="O4">
-        <v>0.594770863717617</v>
+        <v>0.59424107032237539</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
@@ -609,25 +609,25 @@
         <v>20</v>
       </c>
       <c r="H5">
-        <v>0.16051193193019689</v>
+        <v>0.1605219915561506</v>
       </c>
       <c r="I5">
-        <v>2.391489038795367E-2</v>
+        <v>2.3913074600945081E-2</v>
       </c>
       <c r="J5">
-        <v>4.1700972289367356E-9</v>
+        <v>4.1539563966414826E-9</v>
       </c>
       <c r="L5" t="s">
         <v>20</v>
       </c>
       <c r="M5">
-        <v>0.11676786904637861</v>
+        <v>0.11681754562709799</v>
       </c>
       <c r="N5">
-        <v>3.2952845545627253E-2</v>
+        <v>3.2942446373209068E-2</v>
       </c>
       <c r="O5">
-        <v>8.5511552562201481E-4</v>
+        <v>8.4831951985805682E-4</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
@@ -635,25 +635,25 @@
         <v>21</v>
       </c>
       <c r="H6">
-        <v>3.5246328898225883E-2</v>
+        <v>3.5249724806208763E-2</v>
       </c>
       <c r="I6">
-        <v>8.9262144340931833E-3</v>
+        <v>8.9258953767442327E-3</v>
       </c>
       <c r="J6">
-        <v>1.8496179900863281E-4</v>
+        <v>1.846329363119266E-4</v>
       </c>
       <c r="L6" t="s">
         <v>21</v>
       </c>
       <c r="M6">
-        <v>2.8704247128092709E-2</v>
+        <v>2.8696015687044382E-2</v>
       </c>
       <c r="N6">
-        <v>1.310802431376173E-2</v>
+        <v>1.3091547344524531E-2</v>
       </c>
       <c r="O6">
-        <v>3.3136524800124273E-2</v>
+        <v>3.2973599755079012E-2</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
@@ -661,13 +661,13 @@
         <v>22</v>
       </c>
       <c r="M7">
-        <v>8.4413771132384587E-4</v>
+        <v>8.0382725258697446E-4</v>
       </c>
       <c r="N7">
-        <v>4.266781646756976E-3</v>
+        <v>4.1947981460133234E-3</v>
       </c>
       <c r="O7">
-        <v>0.8439571433373616</v>
+        <v>0.84879703841974818</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
@@ -675,13 +675,13 @@
         <v>23</v>
       </c>
       <c r="M8">
-        <v>7.6654102165211525E-4</v>
+        <v>7.6251115025919637E-4</v>
       </c>
       <c r="N8">
-        <v>3.4156938524953801E-4</v>
+        <v>3.3992736148233919E-4</v>
       </c>
       <c r="O8">
-        <v>2.918942744817107E-2</v>
+        <v>2.9259117998218689E-2</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -689,13 +689,13 @@
         <v>24</v>
       </c>
       <c r="M9">
-        <v>8.0154600752224345E-3</v>
+        <v>7.6609276027683219E-3</v>
       </c>
       <c r="N9">
-        <v>2.9174297479151899E-3</v>
+        <v>2.375561031441052E-3</v>
       </c>
       <c r="O9">
-        <v>8.2814646911879824E-3</v>
+        <v>2.201043885712134E-3</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
@@ -703,13 +703,13 @@
         <v>25</v>
       </c>
       <c r="M10">
-        <v>1.8268482420867801E-2</v>
+        <v>1.8170651327332601E-2</v>
       </c>
       <c r="N10">
-        <v>8.7618698062997859E-3</v>
+        <v>8.6867787715229228E-3</v>
       </c>
       <c r="O10">
-        <v>4.2094038073052543E-2</v>
+        <v>4.1458271747039442E-2</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
@@ -720,13 +720,13 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>-1.232658647105557E-2</v>
+        <v>-9.3302798352987021E-3</v>
       </c>
       <c r="D11">
-        <v>4.5322742835222536E-3</v>
+        <v>3.854055046290199E-3</v>
       </c>
       <c r="E11">
-        <v>8.2332013166387125E-3</v>
+        <v>1.807868482202666E-2</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
@@ -735,13 +735,13 @@
         <v>16</v>
       </c>
       <c r="H11">
-        <v>-1.1247999272705349E-2</v>
+        <v>-1.1312297130303E-2</v>
       </c>
       <c r="I11">
-        <v>1.6772916033643889E-2</v>
+        <v>1.7004876683486721E-2</v>
       </c>
       <c r="J11">
-        <v>0.39191115751269318</v>
+        <v>0.41785525714275529</v>
       </c>
       <c r="K11" t="s">
         <v>17</v>
@@ -750,13 +750,13 @@
         <v>16</v>
       </c>
       <c r="M11">
-        <v>4.3353873451343859E-3</v>
+        <v>9.8208321967158596E-4</v>
       </c>
       <c r="N11">
-        <v>6.2837409857494832E-3</v>
+        <v>5.3034891175822094E-3</v>
       </c>
       <c r="O11">
-        <v>0.36558676168083343</v>
+        <v>0.1976913541016509</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
@@ -764,25 +764,25 @@
         <v>18</v>
       </c>
       <c r="H12">
-        <v>-9.2013492490330709E-2</v>
+        <v>-9.2017960319656436E-2</v>
       </c>
       <c r="I12">
-        <v>8.9953140504184913E-3</v>
+        <v>8.9941960627781987E-3</v>
       </c>
       <c r="J12">
-        <v>1.5455927997050771E-15</v>
+        <v>1.5343262372959431E-15</v>
       </c>
       <c r="L12" t="s">
         <v>18</v>
       </c>
       <c r="M12">
-        <v>8.0154600752224345E-3</v>
+        <v>7.6609276027683219E-3</v>
       </c>
       <c r="N12">
-        <v>2.9174297479151899E-3</v>
+        <v>2.375561031441052E-3</v>
       </c>
       <c r="O12">
-        <v>8.2814646911879824E-3</v>
+        <v>2.201043885712134E-3</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
@@ -790,25 +790,25 @@
         <v>19</v>
       </c>
       <c r="H13">
-        <v>7.147328748700905E-5</v>
+        <v>7.1438827033914635E-5</v>
       </c>
       <c r="I13">
-        <v>2.4048412303007881E-4</v>
+        <v>2.4051568526386671E-4</v>
       </c>
       <c r="J13">
-        <v>0.76718954722084098</v>
+        <v>0.76732812535707595</v>
       </c>
       <c r="L13" t="s">
         <v>19</v>
       </c>
       <c r="M13">
-        <v>-4.9313762494610988E-4</v>
+        <v>-4.6089754995166173E-4</v>
       </c>
       <c r="N13">
-        <v>4.9963574246236746E-3</v>
+        <v>4.9536017026936318E-3</v>
       </c>
       <c r="O13">
-        <v>0.92176384186441962</v>
+        <v>0.92623401817516082</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
@@ -816,25 +816,25 @@
         <v>20</v>
       </c>
       <c r="H14">
-        <v>-4.1188325553671121E-2</v>
+        <v>-4.1192218820708663E-2</v>
       </c>
       <c r="I14">
-        <v>7.7388504234892483E-3</v>
+        <v>7.7373703536531601E-3</v>
       </c>
       <c r="J14">
-        <v>1.172691313146752E-6</v>
+        <v>1.1657334558528231E-6</v>
       </c>
       <c r="L14" t="s">
         <v>20</v>
       </c>
       <c r="M14">
-        <v>1.8268482420867801E-2</v>
+        <v>1.8170651327332601E-2</v>
       </c>
       <c r="N14">
-        <v>8.7618698062997859E-3</v>
+        <v>8.6867787715229228E-3</v>
       </c>
       <c r="O14">
-        <v>4.2094038073052543E-2</v>
+        <v>4.1458271747039442E-2</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
@@ -842,25 +842,25 @@
         <v>21</v>
       </c>
       <c r="H15">
-        <v>-3.958225632214641E-3</v>
+        <v>-3.9759675774589864E-3</v>
       </c>
       <c r="I15">
-        <v>3.9498089519604271E-3</v>
+        <v>3.9485502143213483E-3</v>
       </c>
       <c r="J15">
-        <v>0.31973203619018092</v>
+        <v>0.31742997900843151</v>
       </c>
       <c r="L15" t="s">
         <v>21</v>
       </c>
       <c r="M15">
-        <v>1.1833621299294661</v>
+        <v>1.183161984739477</v>
       </c>
       <c r="N15">
-        <v>4.3197687000518202E-2</v>
+        <v>4.3184447555054697E-2</v>
       </c>
       <c r="O15">
-        <v>3.5819217441389151E-32</v>
+        <v>3.5584684505199741E-32</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
@@ -868,13 +868,13 @@
         <v>22</v>
       </c>
       <c r="M16">
-        <v>-9.3447855584580047E-4</v>
+        <v>-9.1573216109375514E-4</v>
       </c>
       <c r="N16">
-        <v>1.3301489345044441E-3</v>
+        <v>1.309456483711416E-3</v>
       </c>
       <c r="O16">
-        <v>0.48553886554327691</v>
+        <v>0.48752799095801919</v>
       </c>
     </row>
     <row r="17" spans="12:15" x14ac:dyDescent="0.35">
@@ -882,13 +882,13 @@
         <v>23</v>
       </c>
       <c r="M17">
-        <v>-8.4087208093801532E-5</v>
+        <v>-8.402543411057207E-5</v>
       </c>
       <c r="N17">
-        <v>5.4160834916586663E-5</v>
+        <v>5.3810009213760412E-5</v>
       </c>
       <c r="O17">
-        <v>0.12671568233541111</v>
+        <v>0.1245855319782429</v>
       </c>
     </row>
     <row r="18" spans="12:15" x14ac:dyDescent="0.35">
@@ -896,13 +896,13 @@
         <v>24</v>
       </c>
       <c r="M18">
-        <v>1.001702598611903E-3</v>
+        <v>9.9314930534665944E-4</v>
       </c>
       <c r="N18">
-        <v>1.5990279728441039E-3</v>
+        <v>1.5713172524219629E-3</v>
       </c>
       <c r="O18">
-        <v>0.53381736911284339</v>
+        <v>0.53017825443369071</v>
       </c>
     </row>
     <row r="19" spans="12:15" x14ac:dyDescent="0.35">
@@ -910,13 +910,13 @@
         <v>25</v>
       </c>
       <c r="M19">
-        <v>-1.4312272489515961E-3</v>
+        <v>-1.356258615395553E-3</v>
       </c>
       <c r="N19">
-        <v>3.099810046756309E-3</v>
+        <v>3.0728521355255431E-3</v>
       </c>
       <c r="O19">
-        <v>0.64624952095153065</v>
+        <v>0.66081225111031727</v>
       </c>
     </row>
   </sheetData>

--- a/data/descriptives/kable_model_all_pooled_effects.xlsx
+++ b/data/descriptives/kable_model_all_pooled_effects.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\climatechange\data\descriptives\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F611C9F0-3ECF-4ECF-A3D4-246ADB89447C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEFC3C3-7103-4E35-A720-677F44867BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -453,12 +453,12 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,7 +505,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -513,13 +513,13 @@
         <v>16</v>
       </c>
       <c r="C2">
-        <v>1.6508456713617729E-2</v>
+        <v>2.6480962151187878E-2</v>
       </c>
       <c r="D2">
-        <v>1.603342499776449E-2</v>
+        <v>8.6093711200915662E-3</v>
       </c>
       <c r="E2">
-        <v>0.30672945013142883</v>
+        <v>3.0080047903039259E-3</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -528,13 +528,13 @@
         <v>16</v>
       </c>
       <c r="H2">
-        <v>1.385961092178634E-2</v>
+        <v>2.4579321521522181E-2</v>
       </c>
       <c r="I2">
-        <v>1.7004876683486721E-2</v>
+        <v>9.1958290622398756E-3</v>
       </c>
       <c r="J2">
-        <v>0.41785525714275529</v>
+        <v>9.4063555928190004E-3</v>
       </c>
       <c r="K2" t="s">
         <v>15</v>
@@ -543,176 +543,176 @@
         <v>16</v>
       </c>
       <c r="M2">
-        <v>-2.5244387553638409E-2</v>
+        <v>-2.1566299052576791E-2</v>
       </c>
       <c r="N2">
-        <v>1.9411132843549658E-2</v>
+        <v>1.8038770626037339E-2</v>
       </c>
       <c r="O2">
-        <v>0.1976913541016509</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.23596391282585291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
         <v>18</v>
       </c>
       <c r="H3">
-        <v>0.1283552242379388</v>
+        <v>0.1318035920658297</v>
       </c>
       <c r="I3">
-        <v>1.649337674113515E-2</v>
+        <v>1.6329317257759261E-2</v>
       </c>
       <c r="J3">
-        <v>4.5988049913880462E-11</v>
+        <v>1.478657922245083E-11</v>
       </c>
       <c r="L3" t="s">
         <v>18</v>
       </c>
       <c r="M3">
-        <v>0.10437327381416379</v>
+        <v>0.13984059711756849</v>
       </c>
       <c r="N3">
-        <v>2.51566283147323E-2</v>
+        <v>2.1257992357486391E-2</v>
       </c>
       <c r="O3">
-        <v>1.2667488427334339E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+        <v>7.6634686586696488E-9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
         <v>19</v>
       </c>
       <c r="H4">
-        <v>1.524399515006372E-3</v>
+        <v>1.543795478839002E-3</v>
       </c>
       <c r="I4">
-        <v>5.7147334770148021E-4</v>
+        <v>5.7916954572639597E-4</v>
       </c>
       <c r="J4">
-        <v>9.4868554308410423E-3</v>
+        <v>9.5650917105043823E-3</v>
       </c>
       <c r="L4" t="s">
         <v>19</v>
       </c>
       <c r="M4">
-        <v>-4.5856077191687032E-4</v>
+        <v>-6.1044827107982168E-5</v>
       </c>
       <c r="N4">
-        <v>8.5541304888766406E-4</v>
+        <v>6.7129167336706737E-4</v>
       </c>
       <c r="O4">
-        <v>0.59424107032237539</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.92780662931931823</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
         <v>20</v>
       </c>
       <c r="H5">
-        <v>0.1605219915561506</v>
+        <v>0.16460425746763069</v>
       </c>
       <c r="I5">
-        <v>2.3913074600945081E-2</v>
+        <v>2.38795238022197E-2</v>
       </c>
       <c r="J5">
-        <v>4.1539563966414826E-9</v>
+        <v>2.0766170874580499E-9</v>
       </c>
       <c r="L5" t="s">
         <v>20</v>
       </c>
       <c r="M5">
-        <v>0.11681754562709799</v>
+        <v>0.12514363832715719</v>
       </c>
       <c r="N5">
-        <v>3.2942446373209068E-2</v>
+        <v>2.6023878204834421E-2</v>
       </c>
       <c r="O5">
-        <v>8.4831951985805682E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+        <v>8.5851936635498268E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
         <v>21</v>
       </c>
       <c r="H6">
-        <v>3.5249724806208763E-2</v>
+        <v>3.5751821837860062E-2</v>
       </c>
       <c r="I6">
-        <v>8.9258953767442327E-3</v>
+        <v>9.0274634325510535E-3</v>
       </c>
       <c r="J6">
-        <v>1.846329363119266E-4</v>
+        <v>1.7967450374524311E-4</v>
       </c>
       <c r="L6" t="s">
         <v>21</v>
       </c>
       <c r="M6">
-        <v>2.8696015687044382E-2</v>
+        <v>4.1235456317916828E-2</v>
       </c>
       <c r="N6">
-        <v>1.3091547344524531E-2</v>
+        <v>1.0488548635071889E-2</v>
       </c>
       <c r="O6">
-        <v>3.2973599755079012E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+        <v>1.9821048786382059E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L7" t="s">
         <v>22</v>
       </c>
       <c r="M7">
-        <v>8.0382725258697446E-4</v>
+        <v>-1.005150048236169E-3</v>
       </c>
       <c r="N7">
-        <v>4.1947981460133234E-3</v>
+        <v>3.720035290444857E-3</v>
       </c>
       <c r="O7">
-        <v>0.84879703841974818</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.78781364046130453</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L8" t="s">
         <v>23</v>
       </c>
       <c r="M8">
-        <v>7.6251115025919637E-4</v>
+        <v>6.3333360487649181E-4</v>
       </c>
       <c r="N8">
-        <v>3.3992736148233919E-4</v>
+        <v>2.5745716714568569E-4</v>
       </c>
       <c r="O8">
-        <v>2.9259117998218689E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+        <v>1.6404335815073948E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L9" t="s">
         <v>24</v>
       </c>
       <c r="M9">
-        <v>7.6609276027683219E-3</v>
+        <v>8.2673040953404678E-3</v>
       </c>
       <c r="N9">
-        <v>2.375561031441052E-3</v>
+        <v>2.73475762863052E-3</v>
       </c>
       <c r="O9">
-        <v>2.201043885712134E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+        <v>3.510841067875573E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L10" t="s">
         <v>25</v>
       </c>
       <c r="M10">
-        <v>1.8170651327332601E-2</v>
+        <v>1.6517748220442729E-2</v>
       </c>
       <c r="N10">
-        <v>8.6867787715229228E-3</v>
+        <v>7.4545593195321034E-3</v>
       </c>
       <c r="O10">
-        <v>4.1458271747039442E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+        <v>3.000728020407125E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -720,13 +720,13 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>-9.3302798352987021E-3</v>
+        <v>-7.4521357800155334E-3</v>
       </c>
       <c r="D11">
-        <v>3.854055046290199E-3</v>
+        <v>2.817759326954807E-3</v>
       </c>
       <c r="E11">
-        <v>1.807868482202666E-2</v>
+        <v>1.011515898371549E-2</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
@@ -735,13 +735,13 @@
         <v>16</v>
       </c>
       <c r="H11">
-        <v>-1.1312297130303E-2</v>
+        <v>-9.0814985643897454E-3</v>
       </c>
       <c r="I11">
-        <v>1.7004876683486721E-2</v>
+        <v>9.1958290622398756E-3</v>
       </c>
       <c r="J11">
-        <v>0.41785525714275529</v>
+        <v>9.4063555928190004E-3</v>
       </c>
       <c r="K11" t="s">
         <v>17</v>
@@ -750,173 +750,173 @@
         <v>16</v>
       </c>
       <c r="M11">
-        <v>9.8208321967158596E-4</v>
+        <v>9.2895790307595202E-4</v>
       </c>
       <c r="N11">
-        <v>5.3034891175822094E-3</v>
+        <v>4.704773779214905E-3</v>
       </c>
       <c r="O11">
-        <v>0.1976913541016509</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.23596391282585291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
         <v>18</v>
       </c>
       <c r="H12">
-        <v>-9.2017960319656436E-2</v>
+        <v>-8.3029521398539086E-2</v>
       </c>
       <c r="I12">
-        <v>8.9941960627781987E-3</v>
+        <v>8.381219471302867E-3</v>
       </c>
       <c r="J12">
-        <v>1.5343262372959431E-15</v>
+        <v>6.859353286627902E-15</v>
       </c>
       <c r="L12" t="s">
         <v>18</v>
       </c>
       <c r="M12">
-        <v>7.6609276027683219E-3</v>
+        <v>-6.9092918824178909E-2</v>
       </c>
       <c r="N12">
-        <v>2.375561031441052E-3</v>
+        <v>7.8899889157987083E-3</v>
       </c>
       <c r="O12">
-        <v>2.201043885712134E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+        <v>8.2672376710251814E-13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
         <v>19</v>
       </c>
       <c r="H13">
-        <v>7.1438827033914635E-5</v>
+        <v>2.6199573122183702E-5</v>
       </c>
       <c r="I13">
-        <v>2.4051568526386671E-4</v>
+        <v>2.267578786363954E-4</v>
       </c>
       <c r="J13">
-        <v>0.76732812535707595</v>
+        <v>0.9083528240101606</v>
       </c>
       <c r="L13" t="s">
         <v>19</v>
       </c>
       <c r="M13">
-        <v>-4.6089754995166173E-4</v>
+        <v>4.9515007856433633E-4</v>
       </c>
       <c r="N13">
-        <v>4.9536017026936318E-3</v>
+        <v>2.6871467187035761E-4</v>
       </c>
       <c r="O13">
-        <v>0.92623401817516082</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+        <v>6.9674696801401426E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G14" t="s">
         <v>20</v>
       </c>
       <c r="H14">
-        <v>-4.1192218820708663E-2</v>
+        <v>-3.6595457982041751E-2</v>
       </c>
       <c r="I14">
-        <v>7.7373703536531601E-3</v>
+        <v>7.1941299279413744E-3</v>
       </c>
       <c r="J14">
-        <v>1.1657334558528231E-6</v>
+        <v>2.9951948836982621E-6</v>
       </c>
       <c r="L14" t="s">
         <v>20</v>
       </c>
       <c r="M14">
-        <v>1.8170651327332601E-2</v>
+        <v>-3.5893063320044813E-2</v>
       </c>
       <c r="N14">
-        <v>8.6867787715229228E-3</v>
+        <v>8.6505786541904786E-3</v>
       </c>
       <c r="O14">
-        <v>4.1458271747039442E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+        <v>9.3642285969346316E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
         <v>21</v>
       </c>
       <c r="H15">
-        <v>-3.9759675774589864E-3</v>
+        <v>-3.3230956244528539E-3</v>
       </c>
       <c r="I15">
-        <v>3.9485502143213483E-3</v>
+        <v>3.5171516180158039E-3</v>
       </c>
       <c r="J15">
-        <v>0.31742997900843151</v>
+        <v>0.34804465710979371</v>
       </c>
       <c r="L15" t="s">
         <v>21</v>
       </c>
       <c r="M15">
-        <v>1.183161984739477</v>
+        <v>-2.0320700896838892E-3</v>
       </c>
       <c r="N15">
-        <v>4.3184447555054697E-2</v>
+        <v>4.7017784425388781E-3</v>
       </c>
       <c r="O15">
-        <v>3.5584684505199741E-32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.66694970302060497</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L16" t="s">
         <v>22</v>
       </c>
       <c r="M16">
-        <v>-9.1573216109375514E-4</v>
+        <v>-2.1548324407087479E-3</v>
       </c>
       <c r="N16">
-        <v>1.309456483711416E-3</v>
+        <v>1.6498652807005389E-3</v>
       </c>
       <c r="O16">
-        <v>0.48752799095801919</v>
-      </c>
-    </row>
-    <row r="17" spans="12:15" x14ac:dyDescent="0.35">
+        <v>0.19586758260098791</v>
+      </c>
+    </row>
+    <row r="17" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L17" t="s">
         <v>23</v>
       </c>
       <c r="M17">
-        <v>-8.402543411057207E-5</v>
+        <v>-1.267267694006702E-4</v>
       </c>
       <c r="N17">
-        <v>5.3810009213760412E-5</v>
+        <v>8.1364036943377355E-5</v>
       </c>
       <c r="O17">
-        <v>0.1245855319782429</v>
-      </c>
-    </row>
-    <row r="18" spans="12:15" x14ac:dyDescent="0.35">
+        <v>0.12392033993466629</v>
+      </c>
+    </row>
+    <row r="18" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L18" t="s">
         <v>24</v>
       </c>
       <c r="M18">
-        <v>9.9314930534665944E-4</v>
+        <v>8.9272419097860144E-4</v>
       </c>
       <c r="N18">
-        <v>1.5713172524219629E-3</v>
+        <v>1.482559446719688E-3</v>
       </c>
       <c r="O18">
-        <v>0.53017825443369071</v>
-      </c>
-    </row>
-    <row r="19" spans="12:15" x14ac:dyDescent="0.35">
+        <v>0.54904752192109396</v>
+      </c>
+    </row>
+    <row r="19" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L19" t="s">
         <v>25</v>
       </c>
       <c r="M19">
-        <v>-1.356258615395553E-3</v>
+        <v>-2.185295510801103E-4</v>
       </c>
       <c r="N19">
-        <v>3.0728521355255431E-3</v>
+        <v>2.7576884136815251E-3</v>
       </c>
       <c r="O19">
-        <v>0.66081225111031727</v>
+        <v>0.93706812730620692</v>
       </c>
     </row>
   </sheetData>

--- a/data/descriptives/kable_model_all_pooled_effects.xlsx
+++ b/data/descriptives/kable_model_all_pooled_effects.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\climatechange\data\descriptives\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEFC3C3-7103-4E35-A720-677F44867BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00F6FC8-E40B-43E7-A9B8-1518CC38F1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -453,12 +453,12 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,7 +505,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -513,13 +513,13 @@
         <v>16</v>
       </c>
       <c r="C2">
-        <v>2.6480962151187878E-2</v>
+        <v>2.5018493305798469E-2</v>
       </c>
       <c r="D2">
-        <v>8.6093711200915662E-3</v>
+        <v>8.5227008217133322E-3</v>
       </c>
       <c r="E2">
-        <v>3.0080047903039259E-3</v>
+        <v>4.5201390050576976E-3</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -528,13 +528,13 @@
         <v>16</v>
       </c>
       <c r="H2">
-        <v>2.4579321521522181E-2</v>
+        <v>2.3971010828113749E-2</v>
       </c>
       <c r="I2">
-        <v>9.1958290622398756E-3</v>
+        <v>9.1574311019090807E-3</v>
       </c>
       <c r="J2">
-        <v>9.4063555928190004E-3</v>
+        <v>1.0903228485639479E-2</v>
       </c>
       <c r="K2" t="s">
         <v>15</v>
@@ -543,176 +543,176 @@
         <v>16</v>
       </c>
       <c r="M2">
-        <v>-2.1566299052576791E-2</v>
+        <v>-2.26803476362606E-2</v>
       </c>
       <c r="N2">
-        <v>1.8038770626037339E-2</v>
+        <v>1.793238375202369E-2</v>
       </c>
       <c r="O2">
-        <v>0.23596391282585291</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.21020879868618991</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="G3" t="s">
         <v>18</v>
       </c>
       <c r="H3">
-        <v>0.1318035920658297</v>
+        <v>0.13254422355143339</v>
       </c>
       <c r="I3">
-        <v>1.6329317257759261E-2</v>
+        <v>1.6293112556749659E-2</v>
       </c>
       <c r="J3">
-        <v>1.478657922245083E-11</v>
+        <v>1.132169378582656E-11</v>
       </c>
       <c r="L3" t="s">
         <v>18</v>
       </c>
       <c r="M3">
-        <v>0.13984059711756849</v>
+        <v>0.13958884024466989</v>
       </c>
       <c r="N3">
-        <v>2.1257992357486391E-2</v>
+        <v>2.1312942665566919E-2</v>
       </c>
       <c r="O3">
-        <v>7.6634686586696488E-9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8.6300351077681174E-9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="G4" t="s">
         <v>19</v>
       </c>
       <c r="H4">
-        <v>1.543795478839002E-3</v>
+        <v>1.548784512075426E-3</v>
       </c>
       <c r="I4">
-        <v>5.7916954572639597E-4</v>
+        <v>5.8016851416382419E-4</v>
       </c>
       <c r="J4">
-        <v>9.5650917105043823E-3</v>
+        <v>9.4623898148631421E-3</v>
       </c>
       <c r="L4" t="s">
         <v>19</v>
       </c>
       <c r="M4">
-        <v>-6.1044827107982168E-5</v>
+        <v>-6.3095937883885577E-5</v>
       </c>
       <c r="N4">
-        <v>6.7129167336706737E-4</v>
+        <v>6.7100501333218856E-4</v>
       </c>
       <c r="O4">
-        <v>0.92780662931931823</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.92535626672489224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="G5" t="s">
         <v>20</v>
       </c>
       <c r="H5">
-        <v>0.16460425746763069</v>
+        <v>0.16671878574997079</v>
       </c>
       <c r="I5">
-        <v>2.38795238022197E-2</v>
+        <v>2.404914978444582E-2</v>
       </c>
       <c r="J5">
-        <v>2.0766170874580499E-9</v>
+        <v>1.763072006567196E-9</v>
       </c>
       <c r="L5" t="s">
         <v>20</v>
       </c>
       <c r="M5">
-        <v>0.12514363832715719</v>
+        <v>0.12499367558401329</v>
       </c>
       <c r="N5">
-        <v>2.6023878204834421E-2</v>
+        <v>2.599607481343201E-2</v>
       </c>
       <c r="O5">
-        <v>8.5851936635498268E-6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8.6053170568465769E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="G6" t="s">
         <v>21</v>
       </c>
       <c r="H6">
-        <v>3.5751821837860062E-2</v>
+        <v>3.759143217417045E-2</v>
       </c>
       <c r="I6">
-        <v>9.0274634325510535E-3</v>
+        <v>9.0241134990652044E-3</v>
       </c>
       <c r="J6">
-        <v>1.7967450374524311E-4</v>
+        <v>8.8408276147450716E-5</v>
       </c>
       <c r="L6" t="s">
         <v>21</v>
       </c>
       <c r="M6">
-        <v>4.1235456317916828E-2</v>
+        <v>4.0982610647990921E-2</v>
       </c>
       <c r="N6">
-        <v>1.0488548635071889E-2</v>
+        <v>1.047728791067626E-2</v>
       </c>
       <c r="O6">
-        <v>1.9821048786382059E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.1204895887970201E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="L7" t="s">
         <v>22</v>
       </c>
       <c r="M7">
-        <v>-1.005150048236169E-3</v>
+        <v>-5.5849081443060469E-4</v>
       </c>
       <c r="N7">
-        <v>3.720035290444857E-3</v>
+        <v>3.5009297043228789E-3</v>
       </c>
       <c r="O7">
-        <v>0.78781364046130453</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.87372019105934107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="L8" t="s">
         <v>23</v>
       </c>
       <c r="M8">
-        <v>6.3333360487649181E-4</v>
+        <v>6.3158929384814438E-4</v>
       </c>
       <c r="N8">
-        <v>2.5745716714568569E-4</v>
+        <v>2.5706420061840849E-4</v>
       </c>
       <c r="O8">
-        <v>1.6404335815073948E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.653161811428102E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="L9" t="s">
         <v>24</v>
       </c>
       <c r="M9">
-        <v>8.2673040953404678E-3</v>
+        <v>7.7550553627768236E-3</v>
       </c>
       <c r="N9">
-        <v>2.73475762863052E-3</v>
+        <v>2.7894204726462281E-3</v>
       </c>
       <c r="O9">
-        <v>3.510841067875573E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>6.9966689303715352E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="L10" t="s">
         <v>25</v>
       </c>
       <c r="M10">
-        <v>1.6517748220442729E-2</v>
+        <v>1.6973353839768938E-2</v>
       </c>
       <c r="N10">
-        <v>7.4545593195321034E-3</v>
+        <v>7.410445093698698E-3</v>
       </c>
       <c r="O10">
-        <v>3.000728020407125E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.5055228871886239E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -720,13 +720,13 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>-7.4521357800155334E-3</v>
+        <v>-9.0830647496416388E-3</v>
       </c>
       <c r="D11">
-        <v>2.817759326954807E-3</v>
+        <v>3.8622208665798352E-3</v>
       </c>
       <c r="E11">
-        <v>1.011515898371549E-2</v>
+        <v>2.1544786366412411E-2</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
@@ -735,13 +735,13 @@
         <v>16</v>
       </c>
       <c r="H11">
-        <v>-9.0814985643897454E-3</v>
+        <v>-1.155562573037335E-2</v>
       </c>
       <c r="I11">
-        <v>9.1958290622398756E-3</v>
+        <v>9.1574311019090807E-3</v>
       </c>
       <c r="J11">
-        <v>9.4063555928190004E-3</v>
+        <v>1.0903228485639479E-2</v>
       </c>
       <c r="K11" t="s">
         <v>17</v>
@@ -750,173 +750,173 @@
         <v>16</v>
       </c>
       <c r="M11">
-        <v>9.2895790307595202E-4</v>
+        <v>-2.4118676454336821E-4</v>
       </c>
       <c r="N11">
-        <v>4.704773779214905E-3</v>
+        <v>5.9259508463570818E-4</v>
       </c>
       <c r="O11">
-        <v>0.23596391282585291</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.21020879868618991</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="G12" t="s">
         <v>18</v>
       </c>
       <c r="H12">
-        <v>-8.3029521398539086E-2</v>
+        <v>-9.0744915263473627E-2</v>
       </c>
       <c r="I12">
-        <v>8.381219471302867E-3</v>
+        <v>9.1108422703797889E-3</v>
       </c>
       <c r="J12">
-        <v>6.859353286627902E-15</v>
+        <v>5.5006234371909807E-15</v>
       </c>
       <c r="L12" t="s">
         <v>18</v>
       </c>
       <c r="M12">
-        <v>-6.9092918824178909E-2</v>
+        <v>-7.9730163579420074E-2</v>
       </c>
       <c r="N12">
-        <v>7.8899889157987083E-3</v>
+        <v>8.7757725110727304E-3</v>
       </c>
       <c r="O12">
-        <v>8.2672376710251814E-13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.0883726067350411E-13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="G13" t="s">
         <v>19</v>
       </c>
       <c r="H13">
-        <v>2.6199573122183702E-5</v>
+        <v>1.384878396712608E-5</v>
       </c>
       <c r="I13">
-        <v>2.267578786363954E-4</v>
+        <v>2.3908447659080429E-4</v>
       </c>
       <c r="J13">
-        <v>0.9083528240101606</v>
+        <v>0.95397640613175727</v>
       </c>
       <c r="L13" t="s">
         <v>19</v>
       </c>
       <c r="M13">
-        <v>4.9515007856433633E-4</v>
+        <v>5.9049684837943163E-4</v>
       </c>
       <c r="N13">
-        <v>2.6871467187035761E-4</v>
+        <v>2.9387611634861303E-4</v>
       </c>
       <c r="O13">
-        <v>6.9674696801401426E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4.8414413418915253E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="G14" t="s">
         <v>20</v>
       </c>
       <c r="H14">
-        <v>-3.6595457982041751E-2</v>
+        <v>-4.0493491297789418E-2</v>
       </c>
       <c r="I14">
-        <v>7.1941299279413744E-3</v>
+        <v>7.7769004662409458E-3</v>
       </c>
       <c r="J14">
-        <v>2.9951948836982621E-6</v>
+        <v>1.887368152977933E-6</v>
       </c>
       <c r="L14" t="s">
         <v>20</v>
       </c>
       <c r="M14">
-        <v>-3.5893063320044813E-2</v>
+        <v>-3.9582138939871669E-2</v>
       </c>
       <c r="N14">
-        <v>8.6505786541904786E-3</v>
+        <v>9.2030614605332021E-3</v>
       </c>
       <c r="O14">
-        <v>9.3642285969346316E-5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5.4854840562896102E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="G15" t="s">
         <v>21</v>
       </c>
       <c r="H15">
-        <v>-3.3230956244528539E-3</v>
+        <v>-3.4036531036665688E-3</v>
       </c>
       <c r="I15">
-        <v>3.5171516180158039E-3</v>
+        <v>3.9391258391786354E-3</v>
       </c>
       <c r="J15">
-        <v>0.34804465710979371</v>
+        <v>0.3905471038218159</v>
       </c>
       <c r="L15" t="s">
         <v>21</v>
       </c>
       <c r="M15">
-        <v>-2.0320700896838892E-3</v>
+        <v>-2.4185249837979038E-3</v>
       </c>
       <c r="N15">
-        <v>4.7017784425388781E-3</v>
+        <v>5.3152313670493346E-3</v>
       </c>
       <c r="O15">
-        <v>0.66694970302060497</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.65052489869983221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="L16" t="s">
         <v>22</v>
       </c>
       <c r="M16">
-        <v>-2.1548324407087479E-3</v>
+        <v>-4.933321300957499E-4</v>
       </c>
       <c r="N16">
-        <v>1.6498652807005389E-3</v>
+        <v>1.4251470602039129E-3</v>
       </c>
       <c r="O16">
-        <v>0.19586758260098791</v>
-      </c>
-    </row>
-    <row r="17" spans="12:15" x14ac:dyDescent="0.25">
+        <v>0.73027409990221936</v>
+      </c>
+    </row>
+    <row r="17" spans="12:15" x14ac:dyDescent="0.35">
       <c r="L17" t="s">
         <v>23</v>
       </c>
       <c r="M17">
-        <v>-1.267267694006702E-4</v>
+        <v>-1.4523505307067631E-4</v>
       </c>
       <c r="N17">
-        <v>8.1364036943377355E-5</v>
+        <v>8.7450740072632949E-5</v>
       </c>
       <c r="O17">
-        <v>0.12392033993466629</v>
-      </c>
-    </row>
-    <row r="18" spans="12:15" x14ac:dyDescent="0.25">
+        <v>0.1012987213653969</v>
+      </c>
+    </row>
+    <row r="18" spans="12:15" x14ac:dyDescent="0.35">
       <c r="L18" t="s">
         <v>24</v>
       </c>
       <c r="M18">
-        <v>8.9272419097860144E-4</v>
+        <v>1.301680001100252E-3</v>
       </c>
       <c r="N18">
-        <v>1.482559446719688E-3</v>
+        <v>1.6544550607523411E-3</v>
       </c>
       <c r="O18">
-        <v>0.54904752192109396</v>
-      </c>
-    </row>
-    <row r="19" spans="12:15" x14ac:dyDescent="0.25">
+        <v>0.43410896333782423</v>
+      </c>
+    </row>
+    <row r="19" spans="12:15" x14ac:dyDescent="0.35">
       <c r="L19" t="s">
         <v>25</v>
       </c>
       <c r="M19">
-        <v>-2.185295510801103E-4</v>
+        <v>-2.1834952332548389E-4</v>
       </c>
       <c r="N19">
-        <v>2.7576884136815251E-3</v>
+        <v>2.9210048331389342E-3</v>
       </c>
       <c r="O19">
-        <v>0.93706812730620692</v>
+        <v>0.94062872109140283</v>
       </c>
     </row>
   </sheetData>
